--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C1FBF54D-678B-4947-83CC-7B6D498E5AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DC9BD97B-63FB-45C5-B628-1BDD4CF1B5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
-    <sheet name="Credentials" sheetId="2" r:id="rId2"/>
-    <sheet name="Title" sheetId="3" r:id="rId3"/>
-    <sheet name="ProductDetails" sheetId="4" r:id="rId4"/>
-    <sheet name="SearchProduct" sheetId="6" r:id="rId5"/>
-    <sheet name="AccountCreationData" sheetId="7" r:id="rId6"/>
+    <sheet name="RecipePage" sheetId="3" r:id="rId2"/>
+    <sheet name="NewRecipePage1" sheetId="10" r:id="rId3"/>
+    <sheet name="recipe" sheetId="15" r:id="rId4"/>
+    <sheet name="LoginPage" sheetId="14" r:id="rId5"/>
+    <sheet name="BlogPage" sheetId="12" r:id="rId6"/>
+    <sheet name="BlogPage1" sheetId="17" r:id="rId7"/>
+    <sheet name="ProductPage" sheetId="9" r:id="rId8"/>
+    <sheet name="ProductPage1" sheetId="16" r:id="rId9"/>
+    <sheet name="CategoryPage" sheetId="13" r:id="rId10"/>
+    <sheet name="MyAccount" sheetId="18" r:id="rId11"/>
+    <sheet name="ExperienceBuilder" sheetId="19" r:id="rId12"/>
+    <sheet name="HomePage" sheetId="20" r:id="rId13"/>
+    <sheet name="DigitalProduct" sheetId="22" r:id="rId14"/>
+    <sheet name="CheckoutPage" sheetId="21" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:K3"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="152">
   <si>
     <t>TestCases</t>
   </si>
@@ -178,176 +187,340 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Product</t>
   </si>
   <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>qty</t>
-  </si>
-  <si>
-    <t>t-shirt</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>SetPassword</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Zipcode</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>MobilePhone</t>
-  </si>
-  <si>
-    <t>Mrs</t>
-  </si>
-  <si>
-    <t>hgsdtyf</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>EDFG123</t>
-  </si>
-  <si>
-    <t>San</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>91436</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>8489875678</t>
-  </si>
-  <si>
-    <t>TestUser</t>
-  </si>
-  <si>
-    <t>UserTest</t>
-  </si>
-  <si>
-    <t>ABCDEF</t>
-  </si>
-  <si>
-    <t>newtest1@gmail.com</t>
-  </si>
-  <si>
-    <t>newtest2@gmail.com</t>
-  </si>
-  <si>
-    <t>newtest3@gmail.com</t>
-  </si>
-  <si>
-    <t>Qazxsw@9549</t>
+    <t>RecipePage</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Broswer</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://develop.d1fzm6olmw007.amplifyapp.com/recipe/sugarcane-juice-black-wheat-muffins-cake</t>
+  </si>
+  <si>
+    <t>AuthorName</t>
+  </si>
+  <si>
+    <t>CategoryElements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">publishDate </t>
+  </si>
+  <si>
+    <t>blogTitle</t>
+  </si>
+  <si>
+    <t>Nithya mahindra</t>
+  </si>
+  <si>
+    <t>SKIN,HAIR,MAKEUP,FRAGRANCE,WELLNESS,STYLE</t>
+  </si>
+  <si>
+    <t>/07 Jan 2021/</t>
+  </si>
+  <si>
+    <t>Sugarcane juice black wheat muffins/cake</t>
+  </si>
+  <si>
+    <t>IngredientsList</t>
+  </si>
+  <si>
+    <t>DirectionList</t>
+  </si>
+  <si>
+    <t>Beat pumpkin puree and palm jaggery (powdered Sulphur free jaggery) in a mixing bowl using hand whisk or electric beater until smooth.
+Add vanilla pod flesh and give a whisk. Now, add sugarcane juice. Beat it again. Finally, add olive oil (or cashew paste) and beat again.
+Sieve the wheat flour, bajra flour, baking powder and baking soda. 
+Now add the dry mixture to the wet mixture and mix everything well. 
+Preheat oven at 180 degree C for 10 mins.
+Grease a cake tin or muffin moulds or loaf pan with olive oil and dust with flour.
+Pour the batter into the pan and bake for 25-30 mins or till the cake/muffins are done.
+Check the cake by inserting a toothpick at the centre. It should come out clean. Remove pan from the oven. Let it rest for 2 mins. Transfer the cake carefully to the cooling rack and let it cool down completely. Slice the cake and serve.</t>
+  </si>
+  <si>
+    <t>TagsList</t>
+  </si>
+  <si>
+    <t>Desserts
+Cakes &amp; Bakes
+Buck Wheat Steam Cake
+#Sweet
+#Diabeties
+Home Cure Diabetes
+Kuttu Ka Atta Steam Cake
+Testing Innovationm
+Covid New Strain</t>
+  </si>
+  <si>
+    <t>1/2 cup whole wheat flour
+1/4 cup black wheat flour (or bajra flour or again whole wheat flour if black wheat is unavailable)
+1 &amp; 1/2 tsp baking powder
+1/4 cup powdered palm jaggery (powdered organic Sulphur free jaggery)
+1 tsp baking soda
+1 stick of vanilla pod (take the inside flesh of the vanilla pod) 
+1/2 cup fresh sugarcane juice
+1/4 cup cold-pressed olive oil (can also use cashew paste. To make cashew paste - soak 1/4 cup cashew for 2 hours and puree it  using 2-4  tbsp water and not more) 
+1/4 cup fresh pumpkin puree (steam yellow pumpkin and puree it )</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>MicrosoftEdge</t>
+  </si>
+  <si>
+    <t>Headless</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>WelcomeMessage</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>ProductPage</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>BlogTitle</t>
+  </si>
+  <si>
+    <t>NutritionPResent</t>
+  </si>
+  <si>
+    <t>https://develop.d1fzm6olmw007.amplifyapp.com/recipe/fudgy-healthy-chocolate-squares-no-sugar-no-maida-no-dairy</t>
+  </si>
+  <si>
+    <t>Wellcure</t>
+  </si>
+  <si>
+    <t>/05 Feb 2021/</t>
+  </si>
+  <si>
+    <t>Fudgy Healthy Chocolate Squares – no sugar, no maida, no dairy!</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>BlogPage</t>
+  </si>
+  <si>
+    <t>https://develop.d1fzm6olmw007.amplifyapp.com/blog/when-more-is-more-introducing-mighty-patchface</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>CategoryPage</t>
+  </si>
+  <si>
+    <t>https://develop.d1fzm6olmw007.amplifyapp.com/recipe/paneer-butter-masala-recipe</t>
+  </si>
+  <si>
+    <t>Avitha P K</t>
+  </si>
+  <si>
+    <t>/20 Dec 2022/</t>
+  </si>
+  <si>
+    <t>Paneer Butter Masala Recipe</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>tagsElements</t>
+  </si>
+  <si>
+    <t>tagsElement</t>
+  </si>
+  <si>
+    <t>yes,yes</t>
+  </si>
+  <si>
+    <t>yes,no</t>
+  </si>
+  <si>
+    <t>CatgegoryName</t>
+  </si>
+  <si>
+    <t>Yes,yes</t>
+  </si>
+  <si>
+    <t>https://develop.d1fzm6olmw007.amplifyapp.com/blog/Ultimate-Skin-Care-Routine-For-Dry-Skin-Dry-Skin-Tips</t>
+  </si>
+  <si>
+    <t>Sushma</t>
+  </si>
+  <si>
+    <t>Lekha George</t>
+  </si>
+  <si>
+    <t>/25 Nov 2022/</t>
+  </si>
+  <si>
+    <t>Ultimate Skin Care Routine For Dry Skin | Dry Skin Tips</t>
+  </si>
+  <si>
+    <t>WHEN MORE *IS* MORE : INTRODUCING MIGHTY PATCHFACE</t>
+  </si>
+  <si>
+    <t>https://develop.d1fzm6olmw007.amplifyapp.com/product/Apple-Cider-Vinegar</t>
+  </si>
+  <si>
+    <t>https://develop.d1fzm6olmw007.amplifyapp.com/blog/falling-for-the-perfect-fall-skincare-routine-using-aloe-vera</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Falling for the Perfect Fall Skincare Routine using Aloe Vera</t>
+  </si>
+  <si>
+    <t>https://develop.d1fzm6olmw007.amplifyapp.com/product/Double-Chocolate-Cake-Mix</t>
+  </si>
+  <si>
+    <t>https://develop.d1fzm6olmw007.amplifyapp.com/product/BODY-MASSAGE-OIL-Rose-Frankinscense-Therupatic-Floral-Massage-Oil?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80MDcxMzE2NTA3ODU3Mg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://develop.d1fzm6olmw007.amplifyapp.com</t>
+  </si>
+  <si>
+    <t>dot beauty</t>
+  </si>
+  <si>
+    <t>ExperienceBuilder</t>
+  </si>
+  <si>
+    <t>Sangria Command Center</t>
+  </si>
+  <si>
+    <t>https://command-center.sangria.tech/login</t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>https://develop.d1fzm6olmw007.amplifyapp.com/blog/aloe-vera-juice-benefits-uses-nutrition-and-more</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Aloe Vera Juice – Benefits, Uses, Nutrition, and More</t>
+  </si>
+  <si>
+    <t>https://dotbeauty.d1fzm6olmw007.amplifyapp.com/</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>Checkout Page</t>
+  </si>
+  <si>
+    <t>Ankita</t>
+  </si>
+  <si>
+    <t>https://dotbeauty.d1fzm6olmw007.amplifyapp.com/login</t>
   </si>
   <si>
     <t>garvitofficial97@gmail.com</t>
   </si>
   <si>
-    <t>RecipePage</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Broswer</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>https://develop.d1fzm6olmw007.amplifyapp.com/recipe/sugarcane-juice-black-wheat-muffins-cake</t>
-  </si>
-  <si>
-    <t>AuthorName</t>
-  </si>
-  <si>
-    <t>CategoryElements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">publishDate </t>
-  </si>
-  <si>
-    <t>blogTitle</t>
-  </si>
-  <si>
-    <t>Nithya mahindra</t>
-  </si>
-  <si>
-    <t>SKIN,HAIR,MAKEUP,FRAGRANCE,WELLNESS,STYLE</t>
-  </si>
-  <si>
-    <t>/07 Jan 2021/</t>
-  </si>
-  <si>
-    <t>Sugarcane juice black wheat muffins/cake</t>
-  </si>
-  <si>
-    <t>IngredientsList</t>
-  </si>
-  <si>
-    <t>1/2 cup whole wheat flour-1/4 cup black wheat flour (or bajra flour or again whole wheat flour if black wheat is unavailable)-1 &amp; 1/2 tsp baking powder-1/4 cup powdered palm jaggery (powdered organic Sulphur free jaggery)-1 tsp baking soda-1 stick of vanilla pod (take the inside flesh of the vanilla pod) -1/2 cup fresh sugarcane juice-1/4 cup cold-pressed olive oil (can also use cashew paste. To make cashew paste - soak 1/4 cup cashew for 2 hours and puree it,using 2-4,tbsp water and not more) -1/4 cup fresh pumpkin puree (steam yellow pumpkin and puree it )</t>
+    <t>Qazxsw@1234</t>
+  </si>
+  <si>
+    <t>https://dotbeauty.d1fzm6olmw007.amplifyapp.com/blog/5-benefits-of-salt-scrub-may-not-know</t>
+  </si>
+  <si>
+    <t>5 benefits of salt scrub may not know</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>https://dotbeauty.d1fzm6olmw007.amplifyapp.com/recipe/fresh-spinach-juice</t>
+  </si>
+  <si>
+    <t>Fresh Spinach Juice</t>
+  </si>
+  <si>
+    <t>https://dotbeauty.d1fzm6olmw007.amplifyapp.com/category/skin/moisturizer</t>
+  </si>
+  <si>
+    <t>https://dotbeauty.d1fzm6olmw007.amplifyapp.com/category/skin/toners</t>
+  </si>
+  <si>
+    <t>Toners</t>
+  </si>
+  <si>
+    <t>Moisturizer</t>
+  </si>
+  <si>
+    <t>https://dotbeauty.d1fzm6olmw007.amplifyapp.com/product/Coffee-Sugar-Body-Scrub?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NDgxMzYzNzE1NzE3NQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://dotbeauty.d1fzm6olmw007.amplifyapp.com/checkout</t>
+  </si>
+  <si>
+    <t>https://dotbeauty.d1fzm6olmw007.amplifyapp.com/product/Anti-Aging-Facial-Products-Course?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NDg4NDg0NzU5MTczNQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://dotbeauty.d1fzm6olmw007.amplifyapp.com/blog/7-benefits-of-coffee-scrub-to-rejuvenate-your-body</t>
+  </si>
+  <si>
+    <t>Sushma K</t>
+  </si>
+  <si>
+    <t>7 Benefits of Coffee Scrub to Rejuvenate Your Body</t>
+  </si>
+  <si>
+    <t>https://dotbeauty.d1fzm6olmw007.amplifyapp.com/blog/cleanser-vs-toner-which-one-is-better-</t>
+  </si>
+  <si>
+    <t>CLEANSER VS. TONER: WHICH ONE IS BETTER?</t>
+  </si>
+  <si>
+    <t>/02 Mar 2023/</t>
+  </si>
+  <si>
+    <t>/01 Mar 2023/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +549,19 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -477,7 +663,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -494,19 +680,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -904,13 +1125,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
@@ -1115,125 +1336,585 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75025556-D10E-4711-B8C1-C619FDF80D22}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>87</v>
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I2"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475BF27D-0E26-4FF1-9C2C-0D1485EF8883}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="4" max="4" width="41.453125" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="16.90625" customWidth="1"/>
-    <col min="9" max="9" width="50.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="29.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{885F1B49-45A0-4E3E-A720-545CE2FBA2AE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C52CC2A-F9FB-4E7C-8B91-F789F296088D}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352DF3FE-5A25-42E7-9D20-DF7230BAD272}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.08984375" customWidth="1"/>
+    <col min="2" max="2" width="34.26953125" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" customWidth="1"/>
+    <col min="4" max="4" width="38.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD90C82-BE05-47F8-88A8-C52D667135CF}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{3D8418E3-4275-42EF-9842-2A77FFD7D12A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2862F8A-B729-47FD-A00A-5DE347249651}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="4" max="4" width="30.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{8C17BB59-68BF-4BB7-9FE6-575702FB8F24}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{F64F0CCF-D3CA-4C1E-8882-2357410C9E56}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{D84A93BB-E40B-4DAB-AEE1-CB8EA0A3302D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="41.453125" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="16.90625" customWidth="1"/>
+    <col min="10" max="10" width="50.81640625" customWidth="1"/>
+    <col min="11" max="11" width="53" customWidth="1"/>
+    <col min="12" max="12" width="27.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" ht="145" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>89</v>
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>104</v>
+        <v>51</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1242,36 +1923,581 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C6777-D282-4F2A-83B8-8FBEAEA38609}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="21.81640625" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{01C8F1C2-06BF-42DC-801A-1DAB4FA95796}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{60D3908D-2D0F-46E6-9F61-75E7349DE4FE}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{47F56DE5-730D-423A-9768-33BE2AA39833}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF43B93-AA6A-4E93-80D8-37790577CE73}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="6">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46733DF-0522-4FBE-8348-209411859DA3}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="16.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
         <v>55</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{F559FE63-3925-45DB-9895-0A6837E9B9E8}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{E0621D8B-C9DF-434B-A798-6AE179816D53}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC666B2-42F9-430D-963B-0BD4FD460BD4}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="21.6328125" customWidth="1"/>
+    <col min="5" max="5" width="26.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{24DCF602-7143-4E32-8C44-B2D4C92117FB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A13EC3F-83E0-4993-AAEC-400574D78559}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="22.08984375" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1280,252 +2506,163 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O4"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A61FE3-CD15-4A42-9CB6-3D034FA01FBA}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="A1:XFD1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="C2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" s="10" t="s">
+      <c r="B3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="10" t="s">
+    <row r="4" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="O4" s="10" t="s">
+      <c r="B4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{586C6430-A251-4F82-A74A-532BE2B9F360}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38060806-E291-4F3A-9C97-17920372EECC}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DC9BD97B-63FB-45C5-B628-1BDD4CF1B5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1BEFA34A-A54C-4AC0-9FA9-8514201EB293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,12 @@
     <sheet name="CheckoutPage" sheetId="21" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K3"/>
+  <oleSize ref="A1:L5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="158">
   <si>
     <t>TestCases</t>
   </si>
@@ -203,9 +203,6 @@
   </si>
   <si>
     <t>URL</t>
-  </si>
-  <si>
-    <t>https://develop.d1fzm6olmw007.amplifyapp.com/recipe/sugarcane-juice-black-wheat-muffins-cake</t>
   </si>
   <si>
     <t>AuthorName</t>
@@ -315,9 +312,6 @@
     <t>NutritionPResent</t>
   </si>
   <si>
-    <t>https://develop.d1fzm6olmw007.amplifyapp.com/recipe/fudgy-healthy-chocolate-squares-no-sugar-no-maida-no-dairy</t>
-  </si>
-  <si>
     <t>Wellcure</t>
   </si>
   <si>
@@ -333,18 +327,12 @@
     <t>BlogPage</t>
   </si>
   <si>
-    <t>https://develop.d1fzm6olmw007.amplifyapp.com/blog/when-more-is-more-introducing-mighty-patchface</t>
-  </si>
-  <si>
     <t>Page</t>
   </si>
   <si>
     <t>CategoryPage</t>
   </si>
   <si>
-    <t>https://develop.d1fzm6olmw007.amplifyapp.com/recipe/paneer-butter-masala-recipe</t>
-  </si>
-  <si>
     <t>Avitha P K</t>
   </si>
   <si>
@@ -375,9 +363,6 @@
     <t>Yes,yes</t>
   </si>
   <si>
-    <t>https://develop.d1fzm6olmw007.amplifyapp.com/blog/Ultimate-Skin-Care-Routine-For-Dry-Skin-Dry-Skin-Tips</t>
-  </si>
-  <si>
     <t>Sushma</t>
   </si>
   <si>
@@ -393,27 +378,12 @@
     <t>WHEN MORE *IS* MORE : INTRODUCING MIGHTY PATCHFACE</t>
   </si>
   <si>
-    <t>https://develop.d1fzm6olmw007.amplifyapp.com/product/Apple-Cider-Vinegar</t>
-  </si>
-  <si>
-    <t>https://develop.d1fzm6olmw007.amplifyapp.com/blog/falling-for-the-perfect-fall-skincare-routine-using-aloe-vera</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
     <t>Falling for the Perfect Fall Skincare Routine using Aloe Vera</t>
   </si>
   <si>
-    <t>https://develop.d1fzm6olmw007.amplifyapp.com/product/Double-Chocolate-Cake-Mix</t>
-  </si>
-  <si>
-    <t>https://develop.d1fzm6olmw007.amplifyapp.com/product/BODY-MASSAGE-OIL-Rose-Frankinscense-Therupatic-Floral-Massage-Oil?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80MDcxMzE2NTA3ODU3Mg%3D%3D</t>
-  </si>
-  <si>
-    <t>https://develop.d1fzm6olmw007.amplifyapp.com</t>
-  </si>
-  <si>
     <t>dot beauty</t>
   </si>
   <si>
@@ -438,9 +408,6 @@
     <t>Aloe Vera Juice – Benefits, Uses, Nutrition, and More</t>
   </si>
   <si>
-    <t>https://dotbeauty.d1fzm6olmw007.amplifyapp.com/</t>
-  </si>
-  <si>
     <t>Checkout</t>
   </si>
   <si>
@@ -450,63 +417,33 @@
     <t>Ankita</t>
   </si>
   <si>
-    <t>https://dotbeauty.d1fzm6olmw007.amplifyapp.com/login</t>
-  </si>
-  <si>
     <t>garvitofficial97@gmail.com</t>
   </si>
   <si>
     <t>Qazxsw@1234</t>
   </si>
   <si>
-    <t>https://dotbeauty.d1fzm6olmw007.amplifyapp.com/blog/5-benefits-of-salt-scrub-may-not-know</t>
-  </si>
-  <si>
     <t>5 benefits of salt scrub may not know</t>
   </si>
   <si>
     <t>Edge</t>
   </si>
   <si>
-    <t>https://dotbeauty.d1fzm6olmw007.amplifyapp.com/recipe/fresh-spinach-juice</t>
-  </si>
-  <si>
     <t>Fresh Spinach Juice</t>
   </si>
   <si>
-    <t>https://dotbeauty.d1fzm6olmw007.amplifyapp.com/category/skin/moisturizer</t>
-  </si>
-  <si>
-    <t>https://dotbeauty.d1fzm6olmw007.amplifyapp.com/category/skin/toners</t>
-  </si>
-  <si>
     <t>Toners</t>
   </si>
   <si>
     <t>Moisturizer</t>
   </si>
   <si>
-    <t>https://dotbeauty.d1fzm6olmw007.amplifyapp.com/product/Coffee-Sugar-Body-Scrub?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NDgxMzYzNzE1NzE3NQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://dotbeauty.d1fzm6olmw007.amplifyapp.com/checkout</t>
-  </si>
-  <si>
-    <t>https://dotbeauty.d1fzm6olmw007.amplifyapp.com/product/Anti-Aging-Facial-Products-Course?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NDg4NDg0NzU5MTczNQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://dotbeauty.d1fzm6olmw007.amplifyapp.com/blog/7-benefits-of-coffee-scrub-to-rejuvenate-your-body</t>
-  </si>
-  <si>
     <t>Sushma K</t>
   </si>
   <si>
     <t>7 Benefits of Coffee Scrub to Rejuvenate Your Body</t>
   </si>
   <si>
-    <t>https://dotbeauty.d1fzm6olmw007.amplifyapp.com/blog/cleanser-vs-toner-which-one-is-better-</t>
-  </si>
-  <si>
     <t>CLEANSER VS. TONER: WHICH ONE IS BETTER?</t>
   </si>
   <si>
@@ -514,6 +451,87 @@
   </si>
   <si>
     <t>/01 Mar 2023/</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/checkout</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/product/Anti-Aging-Facial-Products-Course?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NDg4NDg0NzU5MTczNQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/myAccount</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/category/skin/toners</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/category/skin/moisturizer</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/product/Coffee-Sugar-Body-Scrub?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NDgxMzYzNzE1NzE3NQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/product/BODY-MASSAGE-OIL-Rose-Frankinscense-Therupatic-Floral-Massage-Oil?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80MDcxMzE2NTA3ODU3Mg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/product/Double-Chocolate-Cake-Mix</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/product/Apple-Cider-Vinegar</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/blog/5-benefits-of-salt-scrub-may-not-know</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/blog/7-benefits-of-coffee-scrub-to-rejuvenate-your-body</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/blog/cleanser-vs-toner-which-one-is-better-</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/blog/Ultimate-Skin-Care-Routine-For-Dry-Skin-Dry-Skin-Tips</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/blog/when-more-is-more-introducing-mighty-patchface</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/blog/falling-for-the-perfect-fall-skincare-routine-using-aloe-vera</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/login</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/recipe/fresh-spinach-juice</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/recipe/paneer-butter-masala-recipe</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/recipe/fudgy-healthy-chocolate-squares-no-sugar-no-maida-no-dairy</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/recipe/sugarcane-juice-black-wheat-muffins-cake</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/category/skin</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/category/skin/face%20oils</t>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>Face Oils</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/category/skin/skincare%20recipes</t>
+  </si>
+  <si>
+    <t>Skincare Recipes</t>
   </si>
 </sst>
 </file>
@@ -1338,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75025556-D10E-4711-B8C1-C619FDF80D22}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1351,74 +1369,147 @@
   <sheetData>
     <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>140</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{CF462474-E6DC-4803-B100-60B53DCF3AD2}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{7D9EA9B7-1831-4BA8-8841-259A6547AF92}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1428,7 +1519,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1441,36 +1532,33 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{885F1B49-45A0-4E3E-A720-545CE2FBA2AE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1493,30 +1581,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1529,7 +1617,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1542,33 +1630,36 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>135</v>
-      </c>
       <c r="D2" s="24" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{28E5DFCD-32F8-478D-A856-9B5F192FEDE9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1578,7 +1669,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1589,21 +1680,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
         <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>50</v>
@@ -1612,7 +1703,7 @@
         <v>54</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1628,7 +1719,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1640,65 +1731,63 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{8C17BB59-68BF-4BB7-9FE6-575702FB8F24}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{F64F0CCF-D3CA-4C1E-8882-2357410C9E56}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{D84A93BB-E40B-4DAB-AEE1-CB8EA0A3302D}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{F64F0CCF-D3CA-4C1E-8882-2357410C9E56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1708,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1729,7 +1818,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>51</v>
@@ -1744,30 +1833,30 @@
         <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>51</v>
@@ -1776,36 +1865,36 @@
         <v>51</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>56</v>
+        <v>74</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>151</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="J2" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>51</v>
@@ -1814,36 +1903,36 @@
         <v>51</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>151</v>
       </c>
       <c r="F3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="J3" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>51</v>
@@ -1852,36 +1941,36 @@
         <v>51</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>56</v>
+        <v>70</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>151</v>
       </c>
       <c r="F4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="J4" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>51</v>
@@ -1892,34 +1981,40 @@
       <c r="D5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>56</v>
+      <c r="E5" s="20" t="s">
+        <v>151</v>
       </c>
       <c r="F5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="J5" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{824E1E26-A42E-4C21-864C-48E888B8527C}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{DF6456F0-9232-4B63-91F3-8F7D8BA66A34}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{ED19A093-EF21-4487-A8C1-BAE513F79089}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{E8DBB2DE-C21A-4380-87ED-610C2B7769E7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1928,7 +2023,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1945,28 +2040,28 @@
         <v>52</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="J1" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="87" x14ac:dyDescent="0.35">
@@ -1980,25 +2075,25 @@
         <v>54</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="I2" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
@@ -2012,25 +2107,25 @@
         <v>54</v>
       </c>
       <c r="D3" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="H3" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="I3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>89</v>
-      </c>
       <c r="J3" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="87" x14ac:dyDescent="0.35">
@@ -2044,25 +2139,25 @@
         <v>54</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H4" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" t="s">
         <v>97</v>
       </c>
-      <c r="I4" t="s">
-        <v>101</v>
-      </c>
       <c r="J4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2079,8 +2174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF43B93-AA6A-4E93-80D8-37790577CE73}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2093,31 +2188,31 @@
         <v>52</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="J1" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>51</v>
       </c>
@@ -2128,28 +2223,31 @@
         <v>54</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{95CCE09D-FB4B-488D-BFCF-E945C3AE6096}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2159,7 +2257,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2175,16 +2273,16 @@
         <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
         <v>55</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
         <v>48</v>
@@ -2198,31 +2296,32 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>130</v>
+      <c r="D2" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{F559FE63-3925-45DB-9895-0A6837E9B9E8}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{E0621D8B-C9DF-434B-A798-6AE179816D53}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{8F64F6ED-D308-4CAF-A72C-6E8779715858}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2232,8 +2331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC666B2-42F9-430D-963B-0BD4FD460BD4}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2250,134 +2349,136 @@
         <v>52</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>82</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="H2" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>91</v>
+      <c r="D3" s="20" t="s">
+        <v>145</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>113</v>
-      </c>
       <c r="H5" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{24DCF602-7143-4E32-8C44-B2D4C92117FB}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{41F8D3FA-947A-4484-9A96-51394C2B4D30}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{9D5529D9-E6FF-4B7D-8B1F-70F0465B9DC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2385,8 +2486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A13EC3F-83E0-4993-AAEC-400574D78559}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2404,105 +2505,110 @@
         <v>52</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>82</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{603DB019-7D5A-4A38-B296-D69C6BD785B0}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{16704B8E-8A05-472B-9B12-45A71270A0A1}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{D21D0539-A921-4B42-87D0-58ECA199AC13}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2511,7 +2617,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2523,27 +2629,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
         <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
         <v>55</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>50</v>
@@ -2552,18 +2658,18 @@
         <v>54</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>50</v>
@@ -2571,19 +2677,19 @@
       <c r="C3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>115</v>
+      <c r="D3" s="21" t="s">
+        <v>139</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>50</v>
@@ -2591,19 +2697,21 @@
       <c r="C4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>116</v>
+      <c r="D4" s="21" t="s">
+        <v>138</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{586C6430-A251-4F82-A74A-532BE2B9F360}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{67BD214F-6BBF-4A1F-846B-0FBFF3B41B6A}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{6BF9C763-510E-4B3E-9A47-2E749339DDB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2614,7 +2722,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2624,27 +2732,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
         <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
         <v>55</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>50</v>
@@ -2653,16 +2761,19 @@
         <v>54</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{C1B22BC2-EEAF-47BF-A9CF-B9FCF42CA0A4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1BEFA34A-A54C-4AC0-9FA9-8514201EB293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3E30828B-29E2-4DCA-87E1-DE6E506289BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,14 @@
     <sheet name="MyAccount" sheetId="18" r:id="rId11"/>
     <sheet name="ExperienceBuilder" sheetId="19" r:id="rId12"/>
     <sheet name="HomePage" sheetId="20" r:id="rId13"/>
-    <sheet name="DigitalProduct" sheetId="22" r:id="rId14"/>
-    <sheet name="CheckoutPage" sheetId="21" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L5"/>
+  <oleSize ref="A1:H8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="137">
   <si>
     <t>TestCases</t>
   </si>
@@ -203,6 +201,9 @@
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>https://develop.d1fzm6olmw007.amplifyapp.com/recipe/sugarcane-juice-black-wheat-muffins-cake</t>
   </si>
   <si>
     <t>AuthorName</t>
@@ -285,6 +286,9 @@
     <t>Headless</t>
   </si>
   <si>
+    <t>https://develop.d1fzm6olmw007.amplifyapp.com/login</t>
+  </si>
+  <si>
     <t>Login</t>
   </si>
   <si>
@@ -300,6 +304,12 @@
     <t>Welcome</t>
   </si>
   <si>
+    <t>rraghav2@mailinator.com</t>
+  </si>
+  <si>
+    <t>Rohtash@123</t>
+  </si>
+  <si>
     <t>ProductPage</t>
   </si>
   <si>
@@ -312,15 +322,9 @@
     <t>NutritionPResent</t>
   </si>
   <si>
-    <t>Wellcure</t>
-  </si>
-  <si>
     <t>/05 Feb 2021/</t>
   </si>
   <si>
-    <t>Fudgy Healthy Chocolate Squares – no sugar, no maida, no dairy!</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -333,13 +337,10 @@
     <t>CategoryPage</t>
   </si>
   <si>
-    <t>Avitha P K</t>
-  </si>
-  <si>
-    <t>/20 Dec 2022/</t>
-  </si>
-  <si>
-    <t>Paneer Butter Masala Recipe</t>
+    <t>https://develop.d1fzm6olmw007.amplifyapp.com/category/skin/anti-aging</t>
+  </si>
+  <si>
+    <t>https://develop.d1fzm6olmw007.amplifyapp.com/category/skin/skincare</t>
   </si>
   <si>
     <t>Category</t>
@@ -360,185 +361,119 @@
     <t>CatgegoryName</t>
   </si>
   <si>
+    <t>Anti Aging</t>
+  </si>
+  <si>
+    <t>Skincare</t>
+  </si>
+  <si>
     <t>Yes,yes</t>
   </si>
   <si>
-    <t>Sushma</t>
+    <t>https://develop.d1fzm6olmw007.amplifyapp.com/product/Apple-Cider-Vinegar</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>https://develop.d1fzm6olmw007.amplifyapp.com/product/Double-Chocolate-Cake-Mix</t>
+  </si>
+  <si>
+    <t>https://develop.d1fzm6olmw007.amplifyapp.com/product/BODY-MASSAGE-OIL-Rose-Frankinscense-Therupatic-Floral-Massage-Oil?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80MDcxMzE2NTA3ODU3Mg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://develop.d1fzm6olmw007.amplifyapp.com</t>
+  </si>
+  <si>
+    <t>dot beauty</t>
+  </si>
+  <si>
+    <t>ExperienceBuilder</t>
+  </si>
+  <si>
+    <t>Sangria Command Center</t>
+  </si>
+  <si>
+    <t>https://command-center.sangria.tech/login</t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>https://develop.d1fzm6olmw007.amplifyapp.com/</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/product/Charcoal-Body-Scrub?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NDgxMTE3NzQ5Mjc5MQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/product/Coffee-Sugar-Body-Scrub?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NDgxMzYzNzE1NzE3NQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/blog/reasons-you-should-use-a-moisturizer-everyday</t>
+  </si>
+  <si>
+    <t>Reasons you should use a moisturizer everyday</t>
+  </si>
+  <si>
+    <t>Ankita Biswas</t>
+  </si>
+  <si>
+    <t>/21 Mar 2023/</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/blog/5-benefits-of-salt-scrub-may-not-know</t>
+  </si>
+  <si>
+    <t>Sushma K</t>
+  </si>
+  <si>
+    <t>/01 Mar 2023/</t>
+  </si>
+  <si>
+    <t>5 benefits of salt scrub may not know</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/blog/7-benefits-of-coffee-scrub-to-rejuvenate-your-body</t>
+  </si>
+  <si>
+    <t>7 Benefits of Coffee Scrub to Rejuvenate Your Body</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/recipe/sesame-salmon-purple-sprouting-broccoli-sweet-potato-mash</t>
+  </si>
+  <si>
+    <t>SESAME SALMON, PURPLE SPROUTING BROCCOLI &amp; SWEET POTATO MASH</t>
   </si>
   <si>
     <t>Lekha George</t>
   </si>
   <si>
-    <t>/25 Nov 2022/</t>
-  </si>
-  <si>
-    <t>Ultimate Skin Care Routine For Dry Skin | Dry Skin Tips</t>
-  </si>
-  <si>
-    <t>WHEN MORE *IS* MORE : INTRODUCING MIGHTY PATCHFACE</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Falling for the Perfect Fall Skincare Routine using Aloe Vera</t>
-  </si>
-  <si>
-    <t>dot beauty</t>
-  </si>
-  <si>
-    <t>ExperienceBuilder</t>
-  </si>
-  <si>
-    <t>Sangria Command Center</t>
-  </si>
-  <si>
-    <t>https://command-center.sangria.tech/login</t>
-  </si>
-  <si>
-    <t>Home Page</t>
-  </si>
-  <si>
-    <t>https://develop.d1fzm6olmw007.amplifyapp.com/blog/aloe-vera-juice-benefits-uses-nutrition-and-more</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Aloe Vera Juice – Benefits, Uses, Nutrition, and More</t>
-  </si>
-  <si>
-    <t>Checkout</t>
-  </si>
-  <si>
-    <t>Checkout Page</t>
-  </si>
-  <si>
-    <t>Ankita</t>
-  </si>
-  <si>
-    <t>garvitofficial97@gmail.com</t>
-  </si>
-  <si>
-    <t>Qazxsw@1234</t>
-  </si>
-  <si>
-    <t>5 benefits of salt scrub may not know</t>
-  </si>
-  <si>
-    <t>Edge</t>
-  </si>
-  <si>
-    <t>Fresh Spinach Juice</t>
-  </si>
-  <si>
-    <t>Toners</t>
-  </si>
-  <si>
-    <t>Moisturizer</t>
-  </si>
-  <si>
-    <t>Sushma K</t>
-  </si>
-  <si>
-    <t>7 Benefits of Coffee Scrub to Rejuvenate Your Body</t>
-  </si>
-  <si>
-    <t>CLEANSER VS. TONER: WHICH ONE IS BETTER?</t>
-  </si>
-  <si>
-    <t>/02 Mar 2023/</t>
-  </si>
-  <si>
-    <t>/01 Mar 2023/</t>
-  </si>
-  <si>
-    <t>https://uidotbeauty.sangria.tech/checkout</t>
-  </si>
-  <si>
-    <t>https://uidotbeauty.sangria.tech/product/Anti-Aging-Facial-Products-Course?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NDg4NDg0NzU5MTczNQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://uidotbeauty.sangria.tech/</t>
-  </si>
-  <si>
-    <t>https://uidotbeauty.sangria.tech/myAccount</t>
-  </si>
-  <si>
-    <t>https://uidotbeauty.sangria.tech/category/skin/toners</t>
-  </si>
-  <si>
-    <t>https://uidotbeauty.sangria.tech/category/skin/moisturizer</t>
-  </si>
-  <si>
-    <t>https://uidotbeauty.sangria.tech/product/Coffee-Sugar-Body-Scrub?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NDgxMzYzNzE1NzE3NQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://uidotbeauty.sangria.tech/product/BODY-MASSAGE-OIL-Rose-Frankinscense-Therupatic-Floral-Massage-Oil?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80MDcxMzE2NTA3ODU3Mg%3D%3D</t>
-  </si>
-  <si>
-    <t>https://uidotbeauty.sangria.tech/product/Double-Chocolate-Cake-Mix</t>
-  </si>
-  <si>
-    <t>https://uidotbeauty.sangria.tech/product/Apple-Cider-Vinegar</t>
-  </si>
-  <si>
-    <t>https://uidotbeauty.sangria.tech/blog/5-benefits-of-salt-scrub-may-not-know</t>
-  </si>
-  <si>
-    <t>https://uidotbeauty.sangria.tech/blog/7-benefits-of-coffee-scrub-to-rejuvenate-your-body</t>
-  </si>
-  <si>
-    <t>https://uidotbeauty.sangria.tech/blog/cleanser-vs-toner-which-one-is-better-</t>
-  </si>
-  <si>
-    <t>https://uidotbeauty.sangria.tech/blog/Ultimate-Skin-Care-Routine-For-Dry-Skin-Dry-Skin-Tips</t>
-  </si>
-  <si>
-    <t>https://uidotbeauty.sangria.tech/blog/when-more-is-more-introducing-mighty-patchface</t>
-  </si>
-  <si>
-    <t>https://uidotbeauty.sangria.tech/blog/falling-for-the-perfect-fall-skincare-routine-using-aloe-vera</t>
-  </si>
-  <si>
-    <t>https://uidotbeauty.sangria.tech/login</t>
-  </si>
-  <si>
-    <t>https://uidotbeauty.sangria.tech/recipe/fresh-spinach-juice</t>
-  </si>
-  <si>
-    <t>https://uidotbeauty.sangria.tech/recipe/paneer-butter-masala-recipe</t>
-  </si>
-  <si>
-    <t>https://uidotbeauty.sangria.tech/recipe/fudgy-healthy-chocolate-squares-no-sugar-no-maida-no-dairy</t>
-  </si>
-  <si>
-    <t>https://uidotbeauty.sangria.tech/recipe/sugarcane-juice-black-wheat-muffins-cake</t>
-  </si>
-  <si>
-    <t>https://uidotbeauty.sangria.tech/category/skin</t>
-  </si>
-  <si>
-    <t>https://uidotbeauty.sangria.tech/category/skin/face%20oils</t>
-  </si>
-  <si>
-    <t>Skin</t>
-  </si>
-  <si>
-    <t>Face Oils</t>
-  </si>
-  <si>
-    <t>https://uidotbeauty.sangria.tech/category/skin/skincare%20recipes</t>
-  </si>
-  <si>
-    <t>Skincare Recipes</t>
+    <t>https://uidotbeauty.sangria.tech/recipe/simple-broccoli-stir-fry</t>
+  </si>
+  <si>
+    <t>SIMPLE BROCCOLI STIR-FRY</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/recipe/red-raspberry-leaf-tea-smoothie</t>
+  </si>
+  <si>
+    <t>RED RASPBERRY LEAF TEA SMOOTHIE</t>
+  </si>
+  <si>
+    <t>https://uidotfashion.sangria.tech/blog/tips-to-dress-comfortably-while-practicing-yoga</t>
+  </si>
+  <si>
+    <t>Tips To Dress Comfortably While Practicing Yoga</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,6 +501,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
@@ -713,6 +654,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
@@ -722,7 +666,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -731,7 +675,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
@@ -743,11 +687,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1356,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75025556-D10E-4711-B8C1-C619FDF80D22}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1369,146 +1312,77 @@
   <sheetData>
     <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>57</v>
+        <v>85</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>136</v>
+      <c r="D2" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>135</v>
+      <c r="D3" s="21" t="s">
+        <v>94</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{CF462474-E6DC-4803-B100-60B53DCF3AD2}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{7D9EA9B7-1831-4BA8-8841-259A6547AF92}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{195CBE2D-673F-466B-A3B2-7B5030EA7419}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{5FE31D5C-E775-4E42-909F-0BCDD37574E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1519,7 +1393,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1532,33 +1406,36 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>134</v>
+      <c r="D2" s="15" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{885F1B49-45A0-4E3E-A720-545CE2FBA2AE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1581,30 +1458,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>111</v>
+      <c r="D2" s="15" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1617,7 +1494,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1630,164 +1507,35 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{28E5DFCD-32F8-478D-A856-9B5F192FEDE9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD90C82-BE05-47F8-88A8-C52D667135CF}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{3D8418E3-4275-42EF-9842-2A77FFD7D12A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2862F8A-B729-47FD-A00A-5DE347249651}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" customWidth="1"/>
-    <col min="4" max="4" width="30.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{F64F0CCF-D3CA-4C1E-8882-2357410C9E56}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{29D2A213-536B-4CBD-8681-ECD9DCA0FA40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1798,7 +1546,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1818,7 +1566,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>51</v>
@@ -1833,30 +1581,30 @@
         <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>51</v>
@@ -1865,36 +1613,36 @@
         <v>51</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>151</v>
+        <v>75</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="275.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>51</v>
@@ -1903,36 +1651,36 @@
         <v>51</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>73</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>72</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>51</v>
@@ -1941,36 +1689,36 @@
         <v>51</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>51</v>
@@ -1981,40 +1729,34 @@
       <c r="D5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>151</v>
+      <c r="E5" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>68</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{824E1E26-A42E-4C21-864C-48E888B8527C}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{DF6456F0-9232-4B63-91F3-8F7D8BA66A34}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{ED19A093-EF21-4487-A8C1-BAE513F79089}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{E8DBB2DE-C21A-4380-87ED-610C2B7769E7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2023,13 +1765,13 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="21.81640625" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -2040,28 +1782,28 @@
         <v>52</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>82</v>
+      <c r="G1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>95</v>
+        <v>87</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="87" x14ac:dyDescent="0.35">
@@ -2074,29 +1816,29 @@
       <c r="C2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>151</v>
+      <c r="D2" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>51</v>
       </c>
@@ -2106,29 +1848,29 @@
       <c r="C3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>150</v>
+      <c r="D3" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>86</v>
+        <v>62</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>51</v>
       </c>
@@ -2138,35 +1880,31 @@
       <c r="C4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>149</v>
+      <c r="D4" s="22" t="s">
+        <v>127</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>93</v>
+        <v>62</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>128</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{01C8F1C2-06BF-42DC-801A-1DAB4FA95796}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{60D3908D-2D0F-46E6-9F61-75E7349DE4FE}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{47F56DE5-730D-423A-9768-33BE2AA39833}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2175,10 +1913,13 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="27.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
@@ -2188,31 +1929,31 @@
         <v>52</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>82</v>
+      <c r="G1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="116" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>51</v>
       </c>
@@ -2222,32 +1963,29 @@
       <c r="C2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>148</v>
+      <c r="D2" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>123</v>
+        <v>62</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>128</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{95CCE09D-FB4B-488D-BFCF-E945C3AE6096}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2257,13 +1995,10 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="7" max="7" width="16.453125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -2273,16 +2008,16 @@
         <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
         <v>55</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
         <v>48</v>
@@ -2296,32 +2031,30 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>147</v>
+      <c r="D2" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>120</v>
+        <v>82</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{F559FE63-3925-45DB-9895-0A6837E9B9E8}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{E0621D8B-C9DF-434B-A798-6AE179816D53}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{8F64F6ED-D308-4CAF-A72C-6E8779715858}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2329,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC666B2-42F9-430D-963B-0BD4FD460BD4}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2349,152 +2082,119 @@
         <v>52</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>82</v>
+      <c r="G1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>144</v>
+      <c r="D2" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>145</v>
+      <c r="D3" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>102</v>
+        <v>62</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>113</v>
+      <c r="D4" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>101</v>
+        <v>62</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>122</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{24DCF602-7143-4E32-8C44-B2D4C92117FB}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{41F8D3FA-947A-4484-9A96-51394C2B4D30}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{9D5529D9-E6FF-4B7D-8B1F-70F0465B9DC4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A13EC3F-83E0-4993-AAEC-400574D78559}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="22.08984375" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2505,110 +2205,52 @@
         <v>52</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>82</v>
+      <c r="G1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>141</v>
+      <c r="D2" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>130</v>
+        <v>119</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{603DB019-7D5A-4A38-B296-D69C6BD785B0}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{16704B8E-8A05-472B-9B12-45A71270A0A1}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{D21D0539-A921-4B42-87D0-58ECA199AC13}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2616,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A61FE3-CD15-4A42-9CB6-3D034FA01FBA}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2629,27 +2271,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
         <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
         <v>55</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>50</v>
@@ -2657,19 +2299,19 @@
       <c r="C2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>140</v>
+      <c r="D2" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>50</v>
@@ -2677,19 +2319,19 @@
       <c r="C3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>139</v>
+      <c r="D3" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>50</v>
@@ -2697,21 +2339,19 @@
       <c r="C4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>138</v>
+      <c r="D4" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{586C6430-A251-4F82-A74A-532BE2B9F360}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{67BD214F-6BBF-4A1F-846B-0FBFF3B41B6A}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{6BF9C763-510E-4B3E-9A47-2E749339DDB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2719,10 +2359,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38060806-E291-4F3A-9C97-17920372EECC}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2732,27 +2372,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
         <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
         <v>55</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>50</v>
@@ -2760,20 +2400,37 @@
       <c r="C2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>137</v>
+      <c r="D2" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{C1B22BC2-EEAF-47BF-A9CF-B9FCF42CA0A4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>